--- a/models/civil/chapter_8/土建用量表.xlsx
+++ b/models/civil/chapter_8/土建用量表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\models\civil\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D936C6-D2EF-413D-9BF9-FA7CB68DD6A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="960" windowWidth="27885" windowHeight="13830" tabRatio="713" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="960" windowWidth="27885" windowHeight="13830" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -25,17 +24,17 @@
     <definedName name="_Toc294106962" localSheetId="0">成果输出!#REF!</definedName>
     <definedName name="OLE_LINK5" localSheetId="0">成果输出!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>dxy</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2379,7 +2378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#&quot;台&quot;"/>
@@ -4420,23 +4419,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4472,23 +4454,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4664,7 +4629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -7822,7 +7787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R523"/>
   <sheetViews>
     <sheetView topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12722,67 +12687,67 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$E$1:$E$11</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$K$1:$K$7</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$H$1:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$Q$1:$Q$10</xm:f>
           </x14:formula1>
           <xm:sqref>G2 E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>道路基础数据!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>道路基础数据!$H$1:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>G5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>道路基础数据!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>H5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>升压站基础数据!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>升压站基础数据!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>J5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>风机基础数据!$N$1:$N$8</xm:f>
           </x14:formula1>
@@ -12795,11 +12760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12809,7 +12774,8 @@
     <col min="4" max="4" width="12.875" style="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="24"/>
     <col min="6" max="6" width="15.5" style="24" customWidth="1"/>
-    <col min="7" max="9" width="9" style="24"/>
+    <col min="7" max="8" width="9" style="24"/>
+    <col min="9" max="9" width="13.625" style="24" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="24" customWidth="1"/>
     <col min="11" max="13" width="9" style="24"/>
     <col min="14" max="14" width="9.125" style="24" bestFit="1" customWidth="1"/>
@@ -13904,7 +13870,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="53">
-        <f t="shared" si="5"/>
+        <f>L26*M26</f>
         <v>440</v>
       </c>
       <c r="O26" s="52">
@@ -19179,7 +19145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -20191,10 +20157,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
